--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2635.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2635.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.8023885603553331</v>
+        <v>1.222383260726929</v>
       </c>
       <c r="B1">
-        <v>1.637327048706223</v>
+        <v>2.296833753585815</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>3.343996524810791</v>
       </c>
       <c r="D1">
-        <v>1.601180037967469</v>
+        <v>2.125917673110962</v>
       </c>
       <c r="E1">
-        <v>0.877029225235889</v>
+        <v>1.313796162605286</v>
       </c>
     </row>
   </sheetData>
